--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/2_245-70R19.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/2_245-70R19.xlsx
@@ -19,7 +19,118 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="93">
+  <si>
+    <t>Signal_Value_52</t>
+  </si>
+  <si>
+    <t>Signal_Value_53</t>
+  </si>
+  <si>
+    <t>Signal_Value_54</t>
+  </si>
+  <si>
+    <t>Signal_Value_55</t>
+  </si>
+  <si>
+    <t>Signal_Value_56</t>
+  </si>
+  <si>
+    <t>Signal_Value_57</t>
+  </si>
+  <si>
+    <t>Signal_Value_58</t>
+  </si>
+  <si>
+    <t>Signal_Value_59</t>
+  </si>
+  <si>
+    <t>Signal_Value_60</t>
+  </si>
+  <si>
+    <t>Signal_Value_61</t>
+  </si>
+  <si>
+    <t>Signal_Value_62</t>
+  </si>
+  <si>
+    <t>Signal_Value_63</t>
+  </si>
+  <si>
+    <t>Signal_Value_64</t>
+  </si>
+  <si>
+    <t>Signal_Value_65</t>
+  </si>
+  <si>
+    <t>Signal_Value_66</t>
+  </si>
+  <si>
+    <t>Signal_Value_67</t>
+  </si>
+  <si>
+    <t>Signal_Value_68</t>
+  </si>
+  <si>
+    <t>Signal_Value_69</t>
+  </si>
+  <si>
+    <t>Signal_Value_70</t>
+  </si>
+  <si>
+    <t>Signal_Value_71</t>
+  </si>
+  <si>
+    <t>Signal_Value_72</t>
+  </si>
+  <si>
+    <t>Signal_Value_73</t>
+  </si>
+  <si>
+    <t>Signal_Value_74</t>
+  </si>
+  <si>
+    <t>Signal_Value_75</t>
+  </si>
+  <si>
+    <t>Signal_Value_76</t>
+  </si>
+  <si>
+    <t>Signal_Value_77</t>
+  </si>
+  <si>
+    <t>Signal_Value_78</t>
+  </si>
+  <si>
+    <t>Signal_Value_79</t>
+  </si>
+  <si>
+    <t>Signal_Value_80</t>
+  </si>
+  <si>
+    <t>Signal_Value_81</t>
+  </si>
+  <si>
+    <t>Signal_Value_82</t>
+  </si>
+  <si>
+    <t>Signal_Value_83</t>
+  </si>
+  <si>
+    <t>Signal_Value_84</t>
+  </si>
+  <si>
+    <t>Signal_Value_85</t>
+  </si>
+  <si>
+    <t>Signal_Value_86</t>
+  </si>
+  <si>
+    <t>Signal_Value_87</t>
+  </si>
+  <si>
+    <t>Signal_Value_88</t>
+  </si>
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -544,15 +655,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:BT6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:72">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -656,10 +767,121 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:72">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -668,34 +890,34 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0970281470890567</v>
+        <v>0.1906871286873074</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3471024419624646</v>
+        <v>0.3598867665885875</v>
       </c>
       <c r="G2">
-        <v>0.03774076030232729</v>
+        <v>0.09975791646729434</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01322631763636047</v>
       </c>
       <c r="I2">
-        <v>0.01889828299158882</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05106817428187318</v>
+        <v>0.01383599522297744</v>
       </c>
       <c r="K2">
-        <v>0.00144939465531818</v>
+        <v>0.0385004653670373</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.02059604254204083</v>
       </c>
       <c r="M2">
-        <v>0.1070399038557725</v>
+        <v>0.05404574252233332</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -704,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.005209913289202385</v>
       </c>
       <c r="Q2">
-        <v>0.07891608145202116</v>
+        <v>0.01799488907698565</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.01173374193621909</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.08829431762362937</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -725,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.06009597825228947</v>
+        <v>0.05679631127006969</v>
       </c>
       <c r="X2">
-        <v>0.04084009188429363</v>
+        <v>0.02441646307294679</v>
       </c>
       <c r="Y2">
-        <v>0.009679151319853337</v>
+        <v>0.0007833886216507275</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -740,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.008848039210353258</v>
+        <v>0.005320043808353121</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.005351549153674654</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -752,21 +974,132 @@
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.003961178486546742</v>
+        <v>0.02079223542560462</v>
       </c>
       <c r="AG2">
-        <v>0.01987769686843175</v>
+        <v>0.01776220397021414</v>
       </c>
       <c r="AH2">
-        <v>0.01742661782796084</v>
+        <v>0.03895466820162782</v>
       </c>
       <c r="AI2">
+        <v>0.0160819590757318</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:72">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -775,67 +1108,67 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09854416000318851</v>
+        <v>0.2721481215354075</v>
       </c>
       <c r="E3">
-        <v>0.2330765455177927</v>
+        <v>0.04262602956250625</v>
       </c>
       <c r="F3">
-        <v>0.05149811965484324</v>
+        <v>0.2246621673978179</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.07492783469659761</v>
       </c>
       <c r="H3">
-        <v>0.02070768782553846</v>
+        <v>0.02531771539645901</v>
       </c>
       <c r="I3">
-        <v>0.03378281327260134</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02486491549511197</v>
+        <v>0.03610822338042669</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.01822779818446263</v>
       </c>
       <c r="L3">
-        <v>0.1712719673311986</v>
+        <v>0.07702727576985852</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.008588540239552602</v>
       </c>
       <c r="N3">
-        <v>0.007486862149117706</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.02792923295616515</v>
+        <v>0.002354279841530514</v>
       </c>
       <c r="P3">
-        <v>0.05540628987751536</v>
+        <v>0.02833184702694846</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.006195750296859376</v>
       </c>
       <c r="R3">
-        <v>0.07510452117666075</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.05181573028065167</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.03316943044581053</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.02028851533805935</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.08118338568956357</v>
+        <v>0.06582216646901289</v>
       </c>
       <c r="X3">
-        <v>0.0003111467737024797</v>
+        <v>0.003334513735071796</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -847,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.01082347518372218</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.01550336931859143</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -859,21 +1192,132 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.004100466973406413</v>
+        <v>0.02333562559419173</v>
       </c>
       <c r="AG3">
-        <v>0.005545907479461775</v>
+        <v>0.01102413184420903</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.04348707722625084</v>
       </c>
       <c r="AI3">
-        <v>0.003912301759610604</v>
+        <v>0.01015405730052286</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:72">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -882,13 +1326,13 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.267697872423024</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1023049648399309</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1601018901557684</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -900,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.128137245754266</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.05127473673054472</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.008729979241712029</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -921,25 +1365,25 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.03095782112213192</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.02436404045456285</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.001520954460595205</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.04463861434888496</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.001926187203758723</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.1188656204284269</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -948,13 +1392,13 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0007576779395359327</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.01926958647855174</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -966,21 +1410,132 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.008464656702729702</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.01524170953016677</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.01574644218540905</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0.1974303193542334</v>
+      </c>
+      <c r="AP4">
+        <v>0.0161853806390412</v>
+      </c>
+      <c r="AQ4">
+        <v>0.18957188703206</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0.01671989381633897</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0.09172249127320271</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0.04030722523388735</v>
+      </c>
+      <c r="AX4">
+        <v>0.09523858200593668</v>
+      </c>
+      <c r="AY4">
+        <v>0.006399324870740749</v>
+      </c>
+      <c r="AZ4">
+        <v>0.006510839058809424</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0.1014933186751862</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0.07540139446835199</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0.1272441257256304</v>
+      </c>
+      <c r="BI4">
+        <v>0.008301172005185493</v>
+      </c>
+      <c r="BJ4">
+        <v>0.01284710008751031</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0.0001042856304069097</v>
+      </c>
+      <c r="BN4">
+        <v>0.0001158053197568848</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0.003816305921968818</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0.003209024294606301</v>
+      </c>
+      <c r="BT4">
+        <v>0.007381524587146209</v>
+      </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:72">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -989,70 +1544,70 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1699381866687051</v>
+        <v>0.1578155875993556</v>
       </c>
       <c r="E5">
-        <v>0.2698911913434624</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1672783512747339</v>
+        <v>0.3421960078793251</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.09197604146098774</v>
       </c>
       <c r="H5">
-        <v>0.01302205892713113</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0007642138200509482</v>
+        <v>0.002674144035579659</v>
       </c>
       <c r="J5">
-        <v>0.07934915585516636</v>
+        <v>0.04236490713748853</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.03504318888240502</v>
       </c>
       <c r="L5">
-        <v>0.06564136392180488</v>
+        <v>0.001043348836386125</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1183479171130744</v>
       </c>
       <c r="N5">
-        <v>0.01269971281314523</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.00179806439692147</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.03935890578788991</v>
       </c>
       <c r="R5">
-        <v>0.005334664029461026</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.02312006976184358</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.02166822472468463</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.01254481883694029</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.08888776992661573</v>
+        <v>0.07636470423438071</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.03568562151813429</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.0002714595049201076</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1061,33 +1616,144 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.007067393818963948</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.001271020952821994</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.005180603869660278</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0360628471244822</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.03968023859483758</v>
+        <v>0.00663628325902168</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.01709282214623313</v>
       </c>
       <c r="AI5">
-        <v>0.001739295016074048</v>
+        <v>0.01018981492731167</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:72">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1096,37 +1762,37 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1388051851009481</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2645271122890964</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.01618865391889772</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.02334667192637406</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.116530488806513</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.872226687216292E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.07705916446160589</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.005636421467963808</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1135,16 +1801,16 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0497064323564967</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.009314272983460343</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.06691646125223237</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1153,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0.101327605786227</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.009994507555092324</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.02604360898944434</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1168,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.02110114137775293</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1180,15 +1846,126 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.01870500537803805</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0238115176163373</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.03096702646664768</v>
+        <v>0</v>
       </c>
       <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0.2263349956905813</v>
+      </c>
+      <c r="AP6">
+        <v>0.1215933939751569</v>
+      </c>
+      <c r="AQ6">
+        <v>0.1732909552328653</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0.01266716358182217</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0.08406549254118471</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0.108471053043272</v>
+      </c>
+      <c r="AX6">
+        <v>0.02562783838442973</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0.009286935225538953</v>
+      </c>
+      <c r="BA6">
+        <v>0.01509361177552494</v>
+      </c>
+      <c r="BB6">
+        <v>0.03113365555845957</v>
+      </c>
+      <c r="BC6">
+        <v>0.04474351676104295</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0.01522711844196584</v>
+      </c>
+      <c r="BF6">
+        <v>0.006345592613250864</v>
+      </c>
+      <c r="BG6">
+        <v>0.005624607239315976</v>
+      </c>
+      <c r="BH6">
+        <v>0.1109039543821038</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0.0001221350757200499</v>
+      </c>
+      <c r="BS6">
+        <v>0.009467980477764672</v>
+      </c>
+      <c r="BT6">
         <v>0</v>
       </c>
     </row>
@@ -1199,15 +1976,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:BT6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:72">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1311,10 +2088,121 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:72">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1323,105 +2211,216 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0970281470890567</v>
+        <v>0.1906871286873074</v>
       </c>
       <c r="E2">
-        <v>0.0970281470890567</v>
+        <v>0.1906871286873074</v>
       </c>
       <c r="F2">
-        <v>0.4441305890515213</v>
+        <v>0.550573895275895</v>
       </c>
       <c r="G2">
-        <v>0.4818713493538486</v>
+        <v>0.6503318117431893</v>
       </c>
       <c r="H2">
-        <v>0.4818713493538486</v>
+        <v>0.6635581293795498</v>
       </c>
       <c r="I2">
-        <v>0.5007696323454374</v>
+        <v>0.6635581293795498</v>
       </c>
       <c r="J2">
-        <v>0.5518378066273105</v>
+        <v>0.6773941246025272</v>
       </c>
       <c r="K2">
-        <v>0.5532872012826286</v>
+        <v>0.7158945899695646</v>
       </c>
       <c r="L2">
-        <v>0.5532872012826286</v>
+        <v>0.7364906325116054</v>
       </c>
       <c r="M2">
-        <v>0.6603271051384012</v>
+        <v>0.7905363750339387</v>
       </c>
       <c r="N2">
-        <v>0.6603271051384012</v>
+        <v>0.7905363750339387</v>
       </c>
       <c r="O2">
-        <v>0.6603271051384012</v>
+        <v>0.7905363750339387</v>
       </c>
       <c r="P2">
-        <v>0.6603271051384012</v>
+        <v>0.7957462883231411</v>
       </c>
       <c r="Q2">
-        <v>0.7392431865904223</v>
+        <v>0.8137411774001267</v>
       </c>
       <c r="R2">
-        <v>0.7392431865904223</v>
+        <v>0.8137411774001267</v>
       </c>
       <c r="S2">
-        <v>0.7509769285266414</v>
+        <v>0.8137411774001267</v>
       </c>
       <c r="T2">
-        <v>0.8392712461502708</v>
+        <v>0.8137411774001267</v>
       </c>
       <c r="U2">
-        <v>0.8392712461502708</v>
+        <v>0.8137411774001267</v>
       </c>
       <c r="V2">
-        <v>0.8392712461502708</v>
+        <v>0.8137411774001267</v>
       </c>
       <c r="W2">
-        <v>0.8993672244025603</v>
+        <v>0.8705374886701964</v>
       </c>
       <c r="X2">
-        <v>0.9402073162868539</v>
+        <v>0.8949539517431432</v>
       </c>
       <c r="Y2">
-        <v>0.9498864676067073</v>
+        <v>0.8957373403647939</v>
       </c>
       <c r="Z2">
-        <v>0.9498864676067073</v>
+        <v>0.8957373403647939</v>
       </c>
       <c r="AA2">
-        <v>0.9498864676067073</v>
+        <v>0.8957373403647939</v>
       </c>
       <c r="AB2">
-        <v>0.9587345068170605</v>
+        <v>0.9010573841731471</v>
       </c>
       <c r="AC2">
-        <v>0.9587345068170605</v>
+        <v>0.9064089333268217</v>
       </c>
       <c r="AD2">
-        <v>0.9587345068170605</v>
+        <v>0.9064089333268217</v>
       </c>
       <c r="AE2">
-        <v>0.9587345068170605</v>
+        <v>0.9064089333268217</v>
       </c>
       <c r="AF2">
-        <v>0.9626956853036073</v>
+        <v>0.9272011687524263</v>
       </c>
       <c r="AG2">
-        <v>0.982573382172039</v>
+        <v>0.9449633727226404</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>0.9839180409242683</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <v>1</v>
+      </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+      <c r="BC2">
+        <v>1</v>
+      </c>
+      <c r="BD2">
+        <v>1</v>
+      </c>
+      <c r="BE2">
+        <v>1</v>
+      </c>
+      <c r="BF2">
+        <v>1</v>
+      </c>
+      <c r="BG2">
+        <v>1</v>
+      </c>
+      <c r="BH2">
+        <v>1</v>
+      </c>
+      <c r="BI2">
+        <v>1</v>
+      </c>
+      <c r="BJ2">
+        <v>1</v>
+      </c>
+      <c r="BK2">
+        <v>1</v>
+      </c>
+      <c r="BL2">
+        <v>1</v>
+      </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2">
+        <v>1</v>
+      </c>
+      <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BP2">
+        <v>1</v>
+      </c>
+      <c r="BQ2">
+        <v>1</v>
+      </c>
+      <c r="BR2">
+        <v>1</v>
+      </c>
+      <c r="BS2">
+        <v>1</v>
+      </c>
+      <c r="BT2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:72">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1430,105 +2429,216 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09854416000318851</v>
+        <v>0.2721481215354075</v>
       </c>
       <c r="E3">
-        <v>0.3316207055209813</v>
+        <v>0.3147741510979137</v>
       </c>
       <c r="F3">
-        <v>0.3831188251758245</v>
+        <v>0.5394363184957316</v>
       </c>
       <c r="G3">
-        <v>0.3831188251758245</v>
+        <v>0.6143641531923292</v>
       </c>
       <c r="H3">
-        <v>0.403826513001363</v>
+        <v>0.6396818685887882</v>
       </c>
       <c r="I3">
-        <v>0.4376093262739643</v>
+        <v>0.6396818685887882</v>
       </c>
       <c r="J3">
-        <v>0.4624742417690763</v>
+        <v>0.6757900919692149</v>
       </c>
       <c r="K3">
-        <v>0.4624742417690763</v>
+        <v>0.6940178901536775</v>
       </c>
       <c r="L3">
-        <v>0.6337462091002749</v>
+        <v>0.771045165923536</v>
       </c>
       <c r="M3">
-        <v>0.6337462091002749</v>
+        <v>0.7796337061630886</v>
       </c>
       <c r="N3">
-        <v>0.6412330712493927</v>
+        <v>0.7796337061630886</v>
       </c>
       <c r="O3">
-        <v>0.6691623042055578</v>
+        <v>0.7819879860046191</v>
       </c>
       <c r="P3">
-        <v>0.7245685940830732</v>
+        <v>0.8103198330315675</v>
       </c>
       <c r="Q3">
-        <v>0.7245685940830732</v>
+        <v>0.8165155833284269</v>
       </c>
       <c r="R3">
-        <v>0.7996731152597339</v>
+        <v>0.8165155833284269</v>
       </c>
       <c r="S3">
-        <v>0.8514888455403856</v>
+        <v>0.8165155833284269</v>
       </c>
       <c r="T3">
-        <v>0.8514888455403856</v>
+        <v>0.8165155833284269</v>
       </c>
       <c r="U3">
-        <v>0.8846582759861962</v>
+        <v>0.8165155833284269</v>
       </c>
       <c r="V3">
-        <v>0.9049467913242555</v>
+        <v>0.8165155833284269</v>
       </c>
       <c r="W3">
-        <v>0.9861301770138191</v>
+        <v>0.8823377497974397</v>
       </c>
       <c r="X3">
-        <v>0.9864413237875216</v>
+        <v>0.8856722635325115</v>
       </c>
       <c r="Y3">
-        <v>0.9864413237875216</v>
+        <v>0.8856722635325115</v>
       </c>
       <c r="Z3">
-        <v>0.9864413237875216</v>
+        <v>0.8856722635325115</v>
       </c>
       <c r="AA3">
-        <v>0.9864413237875216</v>
+        <v>0.8856722635325115</v>
       </c>
       <c r="AB3">
-        <v>0.9864413237875216</v>
+        <v>0.8964957387162337</v>
       </c>
       <c r="AC3">
-        <v>0.9864413237875216</v>
+        <v>0.9119991080348251</v>
       </c>
       <c r="AD3">
-        <v>0.9864413237875216</v>
+        <v>0.9119991080348251</v>
       </c>
       <c r="AE3">
-        <v>0.9864413237875216</v>
+        <v>0.9119991080348251</v>
       </c>
       <c r="AF3">
-        <v>0.990541790760928</v>
+        <v>0.9353347336290169</v>
       </c>
       <c r="AG3">
-        <v>0.9960876982403898</v>
+        <v>0.9463588654732259</v>
       </c>
       <c r="AH3">
-        <v>0.9960876982403898</v>
+        <v>0.9898459426994768</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AJ3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AK3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AL3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AM3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AN3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AO3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AP3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AQ3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AR3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AS3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AT3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AU3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AV3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AW3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AX3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AY3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AZ3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BA3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BB3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BC3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BD3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BE3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BF3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BG3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BH3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BI3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BJ3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BK3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BL3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BM3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BN3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BO3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BP3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BQ3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BR3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BS3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BT3">
+        <v>0.9999999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:72">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1537,105 +2647,216 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.267697872423024</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3700028372629549</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5301047274187233</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.5301047274187233</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.5301047274187233</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5301047274187233</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.6582419731729894</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6582419731729894</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7095167099035341</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7182466891452461</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7182466891452461</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7182466891452461</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7182466891452461</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.7492045102673781</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.773568550721941</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.7750895051825362</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.8197281195314211</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.8216543067351798</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.8216543067351798</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.9405199271636067</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.9405199271636067</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.9405199271636067</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.9412776051031426</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.9412776051031426</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.9605471915816943</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.9605471915816943</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.9605471915816943</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.9605471915816943</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.969011848284424</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.9842535578145908</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999998</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0.1974303193542334</v>
+      </c>
+      <c r="AP4">
+        <v>0.2136156999932746</v>
+      </c>
+      <c r="AQ4">
+        <v>0.4031875870253346</v>
+      </c>
+      <c r="AR4">
+        <v>0.4031875870253346</v>
+      </c>
+      <c r="AS4">
+        <v>0.4199074808416736</v>
+      </c>
+      <c r="AT4">
+        <v>0.4199074808416736</v>
+      </c>
+      <c r="AU4">
+        <v>0.5116299721148763</v>
+      </c>
+      <c r="AV4">
+        <v>0.5116299721148763</v>
+      </c>
+      <c r="AW4">
+        <v>0.5519371973487636</v>
+      </c>
+      <c r="AX4">
+        <v>0.6471757793547003</v>
+      </c>
+      <c r="AY4">
+        <v>0.6535751042254411</v>
+      </c>
+      <c r="AZ4">
+        <v>0.6600859432842505</v>
+      </c>
+      <c r="BA4">
+        <v>0.6600859432842505</v>
+      </c>
+      <c r="BB4">
+        <v>0.7615792619594367</v>
+      </c>
+      <c r="BC4">
+        <v>0.7615792619594367</v>
+      </c>
+      <c r="BD4">
+        <v>0.7615792619594367</v>
+      </c>
+      <c r="BE4">
+        <v>0.8369806564277887</v>
+      </c>
+      <c r="BF4">
+        <v>0.8369806564277887</v>
+      </c>
+      <c r="BG4">
+        <v>0.8369806564277887</v>
+      </c>
+      <c r="BH4">
+        <v>0.9642247821534191</v>
+      </c>
+      <c r="BI4">
+        <v>0.9725259541586047</v>
+      </c>
+      <c r="BJ4">
+        <v>0.985373054246115</v>
+      </c>
+      <c r="BK4">
+        <v>0.985373054246115</v>
+      </c>
+      <c r="BL4">
+        <v>0.985373054246115</v>
+      </c>
+      <c r="BM4">
+        <v>0.9854773398765219</v>
+      </c>
+      <c r="BN4">
+        <v>0.9855931451962787</v>
+      </c>
+      <c r="BO4">
+        <v>0.9855931451962787</v>
+      </c>
+      <c r="BP4">
+        <v>0.9855931451962787</v>
+      </c>
+      <c r="BQ4">
+        <v>0.9894094511182475</v>
+      </c>
+      <c r="BR4">
+        <v>0.9894094511182475</v>
+      </c>
+      <c r="BS4">
+        <v>0.9926184754128539</v>
+      </c>
+      <c r="BT4">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:72">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1644,105 +2865,216 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1699381866687051</v>
+        <v>0.1578155875993556</v>
       </c>
       <c r="E5">
-        <v>0.4398293780121675</v>
+        <v>0.1578155875993556</v>
       </c>
       <c r="F5">
-        <v>0.6071077292869015</v>
+        <v>0.5000115954786807</v>
       </c>
       <c r="G5">
-        <v>0.6071077292869015</v>
+        <v>0.5919876369396684</v>
       </c>
       <c r="H5">
-        <v>0.6201297882140326</v>
+        <v>0.5919876369396684</v>
       </c>
       <c r="I5">
-        <v>0.6208940020340836</v>
+        <v>0.594661780975248</v>
       </c>
       <c r="J5">
-        <v>0.70024315788925</v>
+        <v>0.6370266881127365</v>
       </c>
       <c r="K5">
-        <v>0.70024315788925</v>
+        <v>0.6720698769951415</v>
       </c>
       <c r="L5">
-        <v>0.7658845218110548</v>
+        <v>0.6731132258315277</v>
       </c>
       <c r="M5">
-        <v>0.7658845218110548</v>
+        <v>0.791461142944602</v>
       </c>
       <c r="N5">
-        <v>0.7785842346242</v>
+        <v>0.791461142944602</v>
       </c>
       <c r="O5">
-        <v>0.7785842346242</v>
+        <v>0.791461142944602</v>
       </c>
       <c r="P5">
-        <v>0.7803822990211214</v>
+        <v>0.791461142944602</v>
       </c>
       <c r="Q5">
-        <v>0.7803822990211214</v>
+        <v>0.8308200487324919</v>
       </c>
       <c r="R5">
-        <v>0.7857169630505825</v>
+        <v>0.8308200487324919</v>
       </c>
       <c r="S5">
-        <v>0.808837032812426</v>
+        <v>0.8308200487324919</v>
       </c>
       <c r="T5">
-        <v>0.808837032812426</v>
+        <v>0.8524882734571766</v>
       </c>
       <c r="U5">
-        <v>0.808837032812426</v>
+        <v>0.8524882734571766</v>
       </c>
       <c r="V5">
-        <v>0.8213818516493663</v>
+        <v>0.8524882734571766</v>
       </c>
       <c r="W5">
-        <v>0.910269621575982</v>
+        <v>0.9288529776915573</v>
       </c>
       <c r="X5">
-        <v>0.910269621575982</v>
+        <v>0.9645385992096915</v>
       </c>
       <c r="Y5">
-        <v>0.910269621575982</v>
+        <v>0.9648100587146117</v>
       </c>
       <c r="Z5">
-        <v>0.910269621575982</v>
+        <v>0.9648100587146117</v>
       </c>
       <c r="AA5">
-        <v>0.910269621575982</v>
+        <v>0.9648100587146117</v>
       </c>
       <c r="AB5">
-        <v>0.9173370153949459</v>
+        <v>0.9648100587146117</v>
       </c>
       <c r="AC5">
-        <v>0.9173370153949459</v>
+        <v>0.9660810796674336</v>
       </c>
       <c r="AD5">
-        <v>0.9173370153949459</v>
+        <v>0.9660810796674336</v>
       </c>
       <c r="AE5">
-        <v>0.9225176192646062</v>
+        <v>0.9660810796674336</v>
       </c>
       <c r="AF5">
-        <v>0.9585804663890883</v>
+        <v>0.9660810796674336</v>
       </c>
       <c r="AG5">
-        <v>0.9982607049839259</v>
+        <v>0.9727173629264553</v>
       </c>
       <c r="AH5">
-        <v>0.9982607049839259</v>
+        <v>0.9898101850726884</v>
       </c>
       <c r="AI5">
         <v>1</v>
       </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>1</v>
+      </c>
+      <c r="AZ5">
+        <v>1</v>
+      </c>
+      <c r="BA5">
+        <v>1</v>
+      </c>
+      <c r="BB5">
+        <v>1</v>
+      </c>
+      <c r="BC5">
+        <v>1</v>
+      </c>
+      <c r="BD5">
+        <v>1</v>
+      </c>
+      <c r="BE5">
+        <v>1</v>
+      </c>
+      <c r="BF5">
+        <v>1</v>
+      </c>
+      <c r="BG5">
+        <v>1</v>
+      </c>
+      <c r="BH5">
+        <v>1</v>
+      </c>
+      <c r="BI5">
+        <v>1</v>
+      </c>
+      <c r="BJ5">
+        <v>1</v>
+      </c>
+      <c r="BK5">
+        <v>1</v>
+      </c>
+      <c r="BL5">
+        <v>1</v>
+      </c>
+      <c r="BM5">
+        <v>1</v>
+      </c>
+      <c r="BN5">
+        <v>1</v>
+      </c>
+      <c r="BO5">
+        <v>1</v>
+      </c>
+      <c r="BP5">
+        <v>1</v>
+      </c>
+      <c r="BQ5">
+        <v>1</v>
+      </c>
+      <c r="BR5">
+        <v>1</v>
+      </c>
+      <c r="BS5">
+        <v>1</v>
+      </c>
+      <c r="BT5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:72">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1751,100 +3083,211 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1388051851009481</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1388051851009481</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4033322973900445</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4195209513089422</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.4195209513089422</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4428676232353163</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5593981120418293</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5593981120418293</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5594168343087015</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6364759987703074</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6421124202382712</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6421124202382712</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6421124202382712</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.6918188525947679</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.7011331255782283</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.7011331255782283</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.7680495868304607</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.7680495868304607</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.7680495868304607</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.8693771926166876</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.8793717001717799</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.9054153091612243</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.9054153091612243</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.9054153091612243</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.9265164505389771</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.9265164505389771</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.9265164505389771</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.9265164505389771</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.9452214559170152</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.9690329735333525</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0.2263349956905813</v>
+      </c>
+      <c r="AP6">
+        <v>0.3479283896657382</v>
+      </c>
+      <c r="AQ6">
+        <v>0.5212193448986036</v>
+      </c>
+      <c r="AR6">
+        <v>0.5212193448986036</v>
+      </c>
+      <c r="AS6">
+        <v>0.5338865084804257</v>
+      </c>
+      <c r="AT6">
+        <v>0.5338865084804257</v>
+      </c>
+      <c r="AU6">
+        <v>0.6179520010216104</v>
+      </c>
+      <c r="AV6">
+        <v>0.6179520010216104</v>
+      </c>
+      <c r="AW6">
+        <v>0.7264230540648824</v>
+      </c>
+      <c r="AX6">
+        <v>0.7520508924493121</v>
+      </c>
+      <c r="AY6">
+        <v>0.7520508924493121</v>
+      </c>
+      <c r="AZ6">
+        <v>0.761337827674851</v>
+      </c>
+      <c r="BA6">
+        <v>0.776431439450376</v>
+      </c>
+      <c r="BB6">
+        <v>0.8075650950088356</v>
+      </c>
+      <c r="BC6">
+        <v>0.8523086117698785</v>
+      </c>
+      <c r="BD6">
+        <v>0.8523086117698785</v>
+      </c>
+      <c r="BE6">
+        <v>0.8675357302118444</v>
+      </c>
+      <c r="BF6">
+        <v>0.8738813228250952</v>
+      </c>
+      <c r="BG6">
+        <v>0.8795059300644112</v>
+      </c>
+      <c r="BH6">
+        <v>0.990409884446515</v>
+      </c>
+      <c r="BI6">
+        <v>0.990409884446515</v>
+      </c>
+      <c r="BJ6">
+        <v>0.990409884446515</v>
+      </c>
+      <c r="BK6">
+        <v>0.990409884446515</v>
+      </c>
+      <c r="BL6">
+        <v>0.990409884446515</v>
+      </c>
+      <c r="BM6">
+        <v>0.990409884446515</v>
+      </c>
+      <c r="BN6">
+        <v>0.990409884446515</v>
+      </c>
+      <c r="BO6">
+        <v>0.990409884446515</v>
+      </c>
+      <c r="BP6">
+        <v>0.990409884446515</v>
+      </c>
+      <c r="BQ6">
+        <v>0.990409884446515</v>
+      </c>
+      <c r="BR6">
+        <v>0.990532019522235</v>
+      </c>
+      <c r="BS6">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BT6">
+        <v>0.9999999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1862,48 +3305,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -1912,16 +3355,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5007696323454374</v>
+        <v>0.550573895275895</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1930,21 +3373,21 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -1953,16 +3396,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6337462091002749</v>
+        <v>0.5394363184957316</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -1971,39 +3414,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5301047274187233</v>
+        <v>0.5116299721148763</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -2012,21 +3455,21 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -2041,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6071077292869015</v>
+        <v>0.5000115954786807</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2053,39 +3496,39 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5593981120418293</v>
+        <v>0.5212193448986036</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -2094,16 +3537,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2121,48 +3564,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>0.7</v>
@@ -2171,16 +3614,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7392431865904223</v>
+        <v>0.7158945899695646</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -2189,21 +3632,21 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>0.7</v>
@@ -2212,16 +3655,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7245685940830732</v>
+        <v>0.771045165923536</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -2230,39 +3673,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7095167099035341</v>
+        <v>0.7615792619594367</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -2271,21 +3714,21 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>0.7</v>
@@ -2294,16 +3737,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.70024315788925</v>
+        <v>0.791461142944602</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -2312,39 +3755,39 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7011331255782283</v>
+        <v>0.7264230540648824</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -2353,16 +3796,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2380,48 +3823,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -2430,16 +3873,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8392712461502708</v>
+        <v>0.8137411774001267</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -2448,21 +3891,21 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -2471,16 +3914,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8514888455403856</v>
+        <v>0.8103198330315675</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -2489,36 +3932,36 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8197281195314211</v>
+        <v>0.8369806564277887</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -2530,21 +3973,21 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -2553,16 +3996,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.808837032812426</v>
+        <v>0.8308200487324919</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -2571,39 +4014,39 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8693771926166876</v>
+        <v>0.8075650950088356</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -2612,16 +4055,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2639,48 +4082,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -2689,16 +4132,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9402073162868539</v>
+        <v>0.9010573841731471</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -2707,21 +4150,21 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -2730,16 +4173,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9049467913242555</v>
+        <v>0.9119991080348251</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -2748,36 +4191,36 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9405199271636067</v>
+        <v>0.9642247821534191</v>
       </c>
       <c r="G4">
         <v>21</v>
@@ -2789,21 +4232,21 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -2818,7 +4261,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.910269621575982</v>
+        <v>0.9288529776915573</v>
       </c>
       <c r="G5">
         <v>21</v>
@@ -2830,39 +4273,39 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9054153091612243</v>
+        <v>0.990409884446515</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -2871,16 +4314,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
